--- a/similarities/split_global/harmonic_similarity_timestamps_33.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_107</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['B:min', 'E:min', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+          <t>('0:00:32.257000', '0:00:34.149000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+          <t>('0:00:45.338707', '0:00:52.304693')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=32.257</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-107#t=24.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=45.338707</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:27.280000', '0:01:32.660000'), ('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:01:00.800000', '0:01:09.040000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:31.310000', '0:00:34.950000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=31.31']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:56.160000', '0:01:00.700000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.780000', '0:00:24.560000')]</t>
+          <t>('0:00:23.040000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=56.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=18.78']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:02:17.340000', '0:02:20.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:05', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=5.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:36.200000', '0:00:42.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=36.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:09.040000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:27.060000', '0:01:32.420000'), ('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=103.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=87.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:09.240000', '0:00:12.560000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
+          <t>['C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:01:01.460000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:08.830317')]</t>
+          <t>('0:00:03.060000', '0:00:06.250000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=3.06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:47.200000', '0:00:56.190000')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:34.995000', '0:00:44.457000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=47.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=34.995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
